--- a/dbPlan01/esquema01.xlsx
+++ b/dbPlan01/esquema01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josemanuelfranciscoaliaga/Documents/GitHub/tp3_acamica/dbPlan01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E7D956-2573-9D44-888E-5051C5BAB2F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCC7B9F-A1C4-EA43-8D0A-61F04C586F96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="460" windowWidth="28040" windowHeight="16240" xr2:uid="{3AC6179B-6EA5-C548-AB32-3E2BA3FFB77A}"/>
+    <workbookView xWindow="19900" yWindow="660" windowWidth="28040" windowHeight="16220" xr2:uid="{3AC6179B-6EA5-C548-AB32-3E2BA3FFB77A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>usuarios</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>home</t>
+  </si>
+  <si>
+    <t>id_pedido</t>
   </si>
 </sst>
 </file>
@@ -523,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33268A15-9B1D-4949-B3BB-96BF60F64FA1}">
   <dimension ref="B3:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -597,10 +600,10 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
         <v>28</v>
@@ -623,10 +626,10 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
         <v>29</v>
@@ -643,10 +646,10 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
         <v>31</v>
@@ -660,10 +663,10 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H13" t="s">
         <v>30</v>
@@ -674,10 +677,10 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H14" t="s">
         <v>32</v>
@@ -688,23 +691,29 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
       <c r="F16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
